--- a/biology/Zoologie/Dosinia_(Dosinidia)_elegans/Dosinia_(Dosinidia)_elegans.xlsx
+++ b/biology/Zoologie/Dosinia_(Dosinidia)_elegans/Dosinia_(Dosinidia)_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemis elegans, Dosinia elegans
 Dosinia (Dosinidia) elegans est une espèce  de mollusques bivalves.
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database                   (28 octobre 2019)[1], l'espèce date du Quaternaire d’Haïti, des États-Unis (Floride, Caroline du Nord, Caroline du Sud), du Pliocène au Pléistocène du Mexique et des États-Unis (Floride), du Pliocène des États-Unis (Floride, Caroline du Nord) et du Miocène du Venezuela.
-Selon World Register of Marine Species                               (28 octobre 2019)[2], il s'agit d'un synonyme de Dosinia concentrica (Born, 1778).
-Selon BioLib                    (28 octobre 2019)[3], il s'agit d'une espèce actuelle, trouvée aux États-Unis. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database                   (28 octobre 2019), l'espèce date du Quaternaire d’Haïti, des États-Unis (Floride, Caroline du Nord, Caroline du Sud), du Pliocène au Pléistocène du Mexique et des États-Unis (Floride), du Pliocène des États-Unis (Floride, Caroline du Nord) et du Miocène du Venezuela.
+Selon World Register of Marine Species                               (28 octobre 2019), il s'agit d'un synonyme de Dosinia concentrica (Born, 1778).
+Selon BioLib                    (28 octobre 2019), il s'agit d'une espèce actuelle, trouvée aux États-Unis. 
 Elle serait consommée en fruits de mer[réf. souhaitée].
 </t>
         </is>
